--- a/Calendar Schedule.xlsx
+++ b/Calendar Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88F166CE-1878-4D5A-826E-064C6555EB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2A8E22-F6AE-4174-8F3C-DD76F5B85FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
   <si>
     <t>Sunday</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Week Start</t>
+  </si>
+  <si>
+    <t>1. Add Player</t>
   </si>
 </sst>
 </file>
@@ -1133,654 +1136,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Photo collage of word: Winter" title="Header Winter">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="114300"/>
-          <a:ext cx="5067300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Photo collage of word: Fall" title="Header Fall">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="-2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="114300"/>
-          <a:ext cx="5067300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Photo collage of word: Fall" title="Header Fall">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="-2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="114300"/>
-          <a:ext cx="5067300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Photo collage of word: Winter" title="Header Winter">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="114300"/>
-          <a:ext cx="5067300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Photo collage of word: Winter" title="Header Winter">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="114300"/>
-          <a:ext cx="5067300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Photo collage of word: Spring" title="Header Spring">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="114300"/>
-          <a:ext cx="5067300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Photo collage of word: Spring" title="Header Spring">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="114300"/>
-          <a:ext cx="5067300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Photo collage of word: Spring" title="Header Spring">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="114300"/>
-          <a:ext cx="5067300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Photo collage of word: Summer" title="Header Summer">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="114300"/>
-          <a:ext cx="5067300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Photo collage of word: Summer" title="Header Summer">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="114300"/>
-          <a:ext cx="5067300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Photo collage of word: Summer" title="Header Summer">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="114300"/>
-          <a:ext cx="5067300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Photo collage of word: Fall" title="Header Fall">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="-2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="114300"/>
-          <a:ext cx="5067300" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1990,12 +1345,14 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
     <col min="11" max="12" width="12.19921875" style="2" customWidth="1"/>
@@ -2308,7 +1665,6 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2325,12 +1681,14 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="2"/>
@@ -2616,7 +1974,6 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2628,12 +1985,14 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="2"/>
@@ -2919,7 +2278,6 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2931,12 +2289,14 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="2"/>
@@ -3222,7 +2582,6 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3234,12 +2593,14 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="2"/>
@@ -3525,7 +2886,6 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3537,12 +2897,14 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="2"/>
@@ -3828,7 +3190,6 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3840,12 +3201,14 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="2"/>
@@ -4131,7 +3494,6 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4143,12 +3505,14 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="2"/>
@@ -4434,7 +3798,6 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4446,12 +3809,14 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="2"/>
@@ -4737,7 +4102,6 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4749,12 +4113,14 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="2"/>
@@ -5040,7 +4406,6 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5052,12 +4417,14 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="2"/>
@@ -5343,7 +4710,6 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5356,13 +4722,13 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="2"/>
@@ -5447,7 +4813,9 @@
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="F5" s="43" t="s">
+        <v>6</v>
+      </c>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
     </row>
@@ -5648,39 +5016,10 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="64dfb1555687e0874b4304b796b5b0c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e4c555b5e194d05b7203de9c4567b3" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5962,27 +5301,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96976B9C-2EA7-4D19-8A19-277F4FB49D78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF6DF2C7-EE11-445A-888B-FD0C6D948076}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC0225-BF25-474B-9958-152085DC109B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6001,4 +5348,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF6DF2C7-EE11-445A-888B-FD0C6D948076}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96976B9C-2EA7-4D19-8A19-277F4FB49D78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Calendar Schedule.xlsx
+++ b/Calendar Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2A8E22-F6AE-4174-8F3C-DD76F5B85FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14B3874-F5E8-441D-80A5-0364CE239E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
   <si>
     <t>Sunday</t>
   </si>
@@ -101,7 +101,19 @@
     <t>Week Start</t>
   </si>
   <si>
-    <t>1. Add Player</t>
+    <t>1. Add Player in EditRound
+2. Remove Player in EditRound
+3. Plus ArrayList(String)
+4. Save Data Add &amp; Remove</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>1. Change CaddieID
+2. Get Player Status to Lock
+3. Switch Player &amp; Updata Player
+4. Test Add Round &amp; Find Bug</t>
   </si>
 </sst>
 </file>
@@ -115,7 +127,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -265,6 +277,13 @@
       <name val="Century Gothic"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -712,16 +731,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -731,10 +747,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,31 +765,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,19 +804,19 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,35 +828,47 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="20" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="26" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="26" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -860,13 +879,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
@@ -878,10 +897,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
@@ -893,10 +912,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
@@ -908,10 +927,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1343,7 +1368,7 @@
     <tabColor theme="8" tint="0.59999389629810485"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -1353,57 +1378,56 @@
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
     <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="12.19921875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="1.59765625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.69921875" style="2"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.59765625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="46" t="str">
         <f>"January "&amp;CalendarYear</f>
         <v>January 2022</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="9" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:12" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="str">
         <f>WeekStart</f>
         <v>Sunday</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="F3" s="10" t="str">
+      <c r="F3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="G3" s="10" t="str">
+      <c r="G3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="H3" s="11" t="str">
+      <c r="H3" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
@@ -1412,200 +1436,189 @@
       </c>
       <c r="L3" s="51"/>
     </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="14">
+    <row r="4" spans="2:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
         <f t="array" ref="B4:H4">DaysAndWeeks+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(WeekStart="Monday")+1)+1</f>
         <v>44556</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>44557</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>44558</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>44559</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>44560</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>44561</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="12">
         <v>44562</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="K5" s="21">
+    <row r="5" spans="2:12" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="K5" s="17">
         <v>2022</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8">
+    <row r="6" spans="2:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <f t="array" ref="B6:H6">DaysAndWeeks+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(WeekStart="Monday")+1)+8</f>
         <v>44563</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>44564</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>44565</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>44566</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>44567</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>44568</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>44569</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7">
+    <row r="7" spans="2:12" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
         <f t="array" ref="B8:H8">DaysAndWeeks+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(WeekStart="Monday")+1)+15</f>
         <v>44570</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>44571</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>44572</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>44573</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>44574</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>44575</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>44576</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8">
+    <row r="9" spans="2:12" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
         <f t="array" ref="B10:H10">DaysAndWeeks+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(WeekStart="Monday")+1)+22</f>
         <v>44577</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>44578</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>44579</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>44580</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>44581</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>44582</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>44583</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7">
+    <row r="11" spans="2:12" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
         <f t="array" ref="B12:H12">DaysAndWeeks+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(WeekStart="Monday")+1)+29</f>
         <v>44584</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>44585</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>44586</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>44587</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>44588</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>44589</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>44590</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8">
+    <row r="13" spans="2:12" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
         <f t="array" ref="B14:C14">DaysAndWeeks+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(WeekStart="Monday")+1)+36</f>
         <v>44591</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>44592</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -1616,10 +1629,9 @@
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
     </row>
-    <row r="15" spans="1:12" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+    <row r="15" spans="2:12" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -1679,7 +1691,7 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1689,241 +1701,229 @@
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
     <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="62" t="str">
         <f>"October "&amp;CalendarYear</f>
         <v>October 2022</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="22" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="str">
         <f>WeekStart</f>
         <v>Sunday</v>
       </c>
-      <c r="C3" s="23" t="str">
+      <c r="C3" s="19" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="D3" s="23" t="str">
+      <c r="D3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E3" s="23" t="str">
+      <c r="E3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="F3" s="23" t="str">
+      <c r="F3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="G3" s="23" t="str">
+      <c r="G3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="H3" s="24" t="str">
+      <c r="H3" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="41">
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37">
         <f t="array" ref="B4:H4">DaysAndWeeks+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(WeekStart="Monday")+1)+1</f>
         <v>44829</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="37">
         <v>44830</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="37">
         <v>44831</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="37">
         <v>44832</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="37">
         <v>44833</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="37">
         <v>44834</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="37">
         <v>44835</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="44">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="40">
         <f t="array" ref="B6:H6">DaysAndWeeks+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(WeekStart="Monday")+1)+8</f>
         <v>44836</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="40">
         <v>44837</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="40">
         <v>44838</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="40">
         <v>44839</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="40">
         <v>44840</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="40">
         <v>44841</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="40">
         <v>44842</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="45">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41">
         <f t="array" ref="B8:H8">DaysAndWeeks+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(WeekStart="Monday")+1)+15</f>
         <v>44843</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="41">
         <v>44844</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="41">
         <v>44845</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="41">
         <v>44846</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="41">
         <v>44847</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="41">
         <v>44848</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="41">
         <v>44849</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="44">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="40">
         <f t="array" ref="B10:H10">DaysAndWeeks+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(WeekStart="Monday")+1)+22</f>
         <v>44850</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="40">
         <v>44851</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="40">
         <v>44852</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="40">
         <v>44853</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="40">
         <v>44854</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="40">
         <v>44855</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="40">
         <v>44856</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="45">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41">
         <f t="array" ref="B12:H12">DaysAndWeeks+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(WeekStart="Monday")+1)+29</f>
         <v>44857</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="41">
         <v>44858</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="41">
         <v>44859</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="41">
         <v>44860</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="41">
         <v>44861</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="41">
         <v>44862</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="41">
         <v>44863</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="44">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="40">
         <f t="array" ref="B14:C14">DaysAndWeeks+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(WeekStart="Monday")+1)+36</f>
         <v>44864</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="40">
         <v>44865</v>
       </c>
       <c r="D14" s="63" t="s">
@@ -1934,15 +1934,14 @@
       <c r="G14" s="63"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1983,7 +1982,7 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -1993,241 +1992,229 @@
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
     <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="62" t="str">
         <f>"November "&amp;CalendarYear</f>
         <v>November 2022</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="22" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="str">
         <f>WeekStart</f>
         <v>Sunday</v>
       </c>
-      <c r="C3" s="23" t="str">
+      <c r="C3" s="19" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="D3" s="23" t="str">
+      <c r="D3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E3" s="23" t="str">
+      <c r="E3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="F3" s="23" t="str">
+      <c r="F3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="G3" s="23" t="str">
+      <c r="G3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="H3" s="24" t="str">
+      <c r="H3" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="41">
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37">
         <f t="array" ref="B4:H4">DaysAndWeeks+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(WeekStart="Monday")+1)+1</f>
         <v>44864</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="37">
         <v>44865</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="37">
         <v>44866</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="37">
         <v>44867</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="37">
         <v>44868</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="37">
         <v>44869</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="37">
         <v>44870</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="44">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="40">
         <f t="array" ref="B6:H6">DaysAndWeeks+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(WeekStart="Monday")+1)+8</f>
         <v>44871</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="40">
         <v>44872</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="40">
         <v>44873</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="40">
         <v>44874</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="40">
         <v>44875</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="40">
         <v>44876</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="40">
         <v>44877</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="45">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41">
         <f t="array" ref="B8:H8">DaysAndWeeks+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(WeekStart="Monday")+1)+15</f>
         <v>44878</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="41">
         <v>44879</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="41">
         <v>44880</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="41">
         <v>44881</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="41">
         <v>44882</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="41">
         <v>44883</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="41">
         <v>44884</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="44">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="40">
         <f t="array" ref="B10:H10">DaysAndWeeks+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(WeekStart="Monday")+1)+22</f>
         <v>44885</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="40">
         <v>44886</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="40">
         <v>44887</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="40">
         <v>44888</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="40">
         <v>44889</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="40">
         <v>44890</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="40">
         <v>44891</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="45">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41">
         <f t="array" ref="B12:H12">DaysAndWeeks+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(WeekStart="Monday")+1)+29</f>
         <v>44892</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="41">
         <v>44893</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="41">
         <v>44894</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="41">
         <v>44895</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="41">
         <v>44896</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="41">
         <v>44897</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="41">
         <v>44898</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="44">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="40">
         <f t="array" ref="B14:C14">DaysAndWeeks+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(WeekStart="Monday")+1)+36</f>
         <v>44899</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="40">
         <v>44900</v>
       </c>
       <c r="D14" s="63" t="s">
@@ -2238,15 +2225,14 @@
       <c r="G14" s="63"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2287,7 +2273,7 @@
     <tabColor theme="8" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -2297,241 +2283,229 @@
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
     <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="46" t="str">
         <f>"December "&amp;CalendarYear</f>
         <v>December 2022</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="9" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="str">
         <f>WeekStart</f>
         <v>Sunday</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="F3" s="10" t="str">
+      <c r="F3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="G3" s="10" t="str">
+      <c r="G3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="H3" s="11" t="str">
+      <c r="H3" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="14">
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
         <f t="array" ref="B4:H4">DaysAndWeeks+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(WeekStart="Monday")+1)+1</f>
         <v>44892</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>44893</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>44894</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>44895</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>44896</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>44897</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="12">
         <v>44898</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <f t="array" ref="B6:H6">DaysAndWeeks+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(WeekStart="Monday")+1)+8</f>
         <v>44899</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>44900</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>44901</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>44902</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>44903</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>44904</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>44905</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
         <f t="array" ref="B8:H8">DaysAndWeeks+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(WeekStart="Monday")+1)+15</f>
         <v>44906</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>44907</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>44908</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>44909</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>44910</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>44911</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>44912</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
         <f t="array" ref="B10:H10">DaysAndWeeks+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(WeekStart="Monday")+1)+22</f>
         <v>44913</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>44914</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>44915</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>44916</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>44917</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>44918</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>44919</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
         <f t="array" ref="B12:H12">DaysAndWeeks+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(WeekStart="Monday")+1)+29</f>
         <v>44920</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>44921</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>44922</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>44923</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>44924</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>44925</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>44926</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
         <f t="array" ref="B14:C14">DaysAndWeeks+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(WeekStart="Monday")+1)+36</f>
         <v>44927</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>44928</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -2542,10 +2516,9 @@
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -2591,7 +2564,7 @@
     <tabColor theme="8" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:H1048576"/>
@@ -2601,241 +2574,229 @@
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
     <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="46" t="str">
         <f>"February "&amp;CalendarYear</f>
         <v>February 2022</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="9" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="str">
         <f>WeekStart</f>
         <v>Sunday</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="F3" s="10" t="str">
+      <c r="F3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="G3" s="10" t="str">
+      <c r="G3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="H3" s="11" t="str">
+      <c r="H3" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="14">
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
         <f t="array" ref="B4:H4">DaysAndWeeks+DATE(CalendarYear,2,1)-WEEKDAY(DATE(CalendarYear,2,1),(WeekStart="Monday")+1)+1</f>
         <v>44591</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>44592</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>44593</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>44594</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>44595</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>44596</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="12">
         <v>44597</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <f t="array" ref="B6:H6">DaysAndWeeks+DATE(CalendarYear,2,1)-WEEKDAY(DATE(CalendarYear,2,1),(WeekStart="Monday")+1)+8</f>
         <v>44598</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>44599</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>44600</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>44601</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>44602</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>44603</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>44604</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
         <f t="array" ref="B8:H8">DaysAndWeeks+DATE(CalendarYear,2,1)-WEEKDAY(DATE(CalendarYear,2,1),(WeekStart="Monday")+1)+15</f>
         <v>44605</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>44606</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>44607</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>44608</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>44609</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>44610</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>44611</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
         <f t="array" ref="B10:H10">DaysAndWeeks+DATE(CalendarYear,2,1)-WEEKDAY(DATE(CalendarYear,2,1),(WeekStart="Monday")+1)+22</f>
         <v>44612</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>44613</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>44614</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>44615</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>44616</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>44617</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>44618</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
         <f t="array" ref="B12:H12">DaysAndWeeks+DATE(CalendarYear,2,1)-WEEKDAY(DATE(CalendarYear,2,1),(WeekStart="Monday")+1)+29</f>
         <v>44619</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>44620</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>44621</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>44622</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>44623</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>44624</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>44625</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
         <f t="array" ref="B14:C14">DaysAndWeeks+DATE(CalendarYear,2,1)-WEEKDAY(DATE(CalendarYear,2,1),(WeekStart="Monday")+1)+36</f>
         <v>44626</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>44627</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -2846,10 +2807,9 @@
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -2895,7 +2855,7 @@
     <tabColor theme="9" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -2905,241 +2865,229 @@
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
     <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="52" t="str">
         <f>"March "&amp;CalendarYear</f>
         <v>March 2022</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="25" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="str">
         <f>WeekStart</f>
         <v>Sunday</v>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="22" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="D3" s="26" t="str">
+      <c r="D3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E3" s="26" t="str">
+      <c r="E3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="F3" s="26" t="str">
+      <c r="F3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="G3" s="26" t="str">
+      <c r="G3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="H3" s="27" t="str">
+      <c r="H3" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="28">
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24">
         <f t="array" ref="B4:H4">DaysAndWeeks+DATE(CalendarYear,3,1)-WEEKDAY(DATE(CalendarYear,3,1),(WeekStart="Monday")+1)+1</f>
         <v>44619</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="24">
         <v>44620</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <v>44621</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="24">
         <v>44622</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="24">
         <v>44623</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="24">
         <v>44624</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="24">
         <v>44625</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="31">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
         <f t="array" ref="B6:H6">DaysAndWeeks+DATE(CalendarYear,3,1)-WEEKDAY(DATE(CalendarYear,3,1),(WeekStart="Monday")+1)+8</f>
         <v>44626</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="27">
         <v>44627</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <v>44628</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <v>44629</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="27">
         <v>44630</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="27">
         <v>44631</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="27">
         <v>44632</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="32">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28">
         <f t="array" ref="B8:H8">DaysAndWeeks+DATE(CalendarYear,3,1)-WEEKDAY(DATE(CalendarYear,3,1),(WeekStart="Monday")+1)+15</f>
         <v>44633</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="28">
         <v>44634</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="28">
         <v>44635</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="28">
         <v>44636</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="28">
         <v>44637</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="28">
         <v>44638</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="28">
         <v>44639</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="31">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27">
         <f t="array" ref="B10:H10">DaysAndWeeks+DATE(CalendarYear,3,1)-WEEKDAY(DATE(CalendarYear,3,1),(WeekStart="Monday")+1)+22</f>
         <v>44640</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="27">
         <v>44641</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="27">
         <v>44642</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <v>44643</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="27">
         <v>44644</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="27">
         <v>44645</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="27">
         <v>44646</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="32">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28">
         <f t="array" ref="B12:H12">DaysAndWeeks+DATE(CalendarYear,3,1)-WEEKDAY(DATE(CalendarYear,3,1),(WeekStart="Monday")+1)+29</f>
         <v>44647</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="28">
         <v>44648</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="28">
         <v>44649</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="28">
         <v>44650</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="28">
         <v>44651</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="28">
         <v>44652</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="28">
         <v>44653</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="31">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27">
         <f t="array" ref="B14:C14">DaysAndWeeks+DATE(CalendarYear,3,1)-WEEKDAY(DATE(CalendarYear,3,1),(WeekStart="Monday")+1)+36</f>
         <v>44654</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="27">
         <v>44655</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -3150,10 +3098,9 @@
       <c r="G14" s="53"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
@@ -3199,7 +3146,7 @@
     <tabColor theme="9" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -3209,241 +3156,229 @@
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
     <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="52" t="str">
         <f>"April "&amp;CalendarYear</f>
         <v>April 2022</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="25" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="str">
         <f>WeekStart</f>
         <v>Sunday</v>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="22" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="D3" s="26" t="str">
+      <c r="D3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E3" s="26" t="str">
+      <c r="E3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="F3" s="26" t="str">
+      <c r="F3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="G3" s="26" t="str">
+      <c r="G3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="H3" s="27" t="str">
+      <c r="H3" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="28">
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24">
         <f t="array" ref="B4:H4">DaysAndWeeks+DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1),(WeekStart="Monday")+1)+1</f>
         <v>44647</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="24">
         <v>44648</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <v>44649</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="24">
         <v>44650</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="24">
         <v>44651</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="24">
         <v>44652</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="24">
         <v>44653</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="31">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
         <f t="array" ref="B6:H6">DaysAndWeeks+DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1),(WeekStart="Monday")+1)+8</f>
         <v>44654</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="27">
         <v>44655</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <v>44656</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <v>44657</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="27">
         <v>44658</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="27">
         <v>44659</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="27">
         <v>44660</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="32">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28">
         <f t="array" ref="B8:H8">DaysAndWeeks+DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1),(WeekStart="Monday")+1)+15</f>
         <v>44661</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="28">
         <v>44662</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="28">
         <v>44663</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="28">
         <v>44664</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="28">
         <v>44665</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="28">
         <v>44666</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="28">
         <v>44667</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="31">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27">
         <f t="array" ref="B10:H10">DaysAndWeeks+DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1),(WeekStart="Monday")+1)+22</f>
         <v>44668</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="27">
         <v>44669</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="27">
         <v>44670</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <v>44671</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="27">
         <v>44672</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="27">
         <v>44673</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="27">
         <v>44674</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="32">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28">
         <f t="array" ref="B12:H12">DaysAndWeeks+DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1),(WeekStart="Monday")+1)+29</f>
         <v>44675</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="28">
         <v>44676</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="28">
         <v>44677</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="28">
         <v>44678</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="28">
         <v>44679</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="28">
         <v>44680</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="28">
         <v>44681</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="31">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27">
         <f t="array" ref="B14:C14">DaysAndWeeks+DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1),(WeekStart="Monday")+1)+36</f>
         <v>44682</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="27">
         <v>44683</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -3454,10 +3389,9 @@
       <c r="G14" s="53"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
@@ -3503,7 +3437,7 @@
     <tabColor theme="9" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -3513,241 +3447,229 @@
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
     <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="52" t="str">
         <f>"May "&amp;CalendarYear</f>
         <v>May 2022</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="25" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="str">
         <f>WeekStart</f>
         <v>Sunday</v>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="22" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="D3" s="26" t="str">
+      <c r="D3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E3" s="26" t="str">
+      <c r="E3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="F3" s="26" t="str">
+      <c r="F3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="G3" s="26" t="str">
+      <c r="G3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="H3" s="27" t="str">
+      <c r="H3" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="28">
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24">
         <f t="array" ref="B4:H4">DaysAndWeeks+DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1),(WeekStart="Monday")+1)+1</f>
         <v>44682</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="24">
         <v>44683</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <v>44684</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="24">
         <v>44685</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="24">
         <v>44686</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="24">
         <v>44687</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="24">
         <v>44688</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="31">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
         <f t="array" ref="B6:H6">DaysAndWeeks+DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1),(WeekStart="Monday")+1)+8</f>
         <v>44689</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="27">
         <v>44690</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <v>44691</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <v>44692</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="27">
         <v>44693</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="27">
         <v>44694</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="27">
         <v>44695</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="32">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28">
         <f t="array" ref="B8:H8">DaysAndWeeks+DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1),(WeekStart="Monday")+1)+15</f>
         <v>44696</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="28">
         <v>44697</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="28">
         <v>44698</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="28">
         <v>44699</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="28">
         <v>44700</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="28">
         <v>44701</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="28">
         <v>44702</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="31">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27">
         <f t="array" ref="B10:H10">DaysAndWeeks+DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1),(WeekStart="Monday")+1)+22</f>
         <v>44703</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="27">
         <v>44704</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="27">
         <v>44705</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <v>44706</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="27">
         <v>44707</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="27">
         <v>44708</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="27">
         <v>44709</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="32">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28">
         <f t="array" ref="B12:H12">DaysAndWeeks+DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1),(WeekStart="Monday")+1)+29</f>
         <v>44710</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="28">
         <v>44711</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="28">
         <v>44712</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="28">
         <v>44713</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="28">
         <v>44714</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="28">
         <v>44715</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="28">
         <v>44716</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="31">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27">
         <f t="array" ref="B14:C14">DaysAndWeeks+DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1),(WeekStart="Monday")+1)+36</f>
         <v>44717</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="27">
         <v>44718</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -3758,10 +3680,9 @@
       <c r="G14" s="53"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
@@ -3807,7 +3728,7 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:H1048576"/>
@@ -3817,241 +3738,229 @@
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
     <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="57" t="str">
         <f>"June "&amp;CalendarYear</f>
         <v>June 2022</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="33" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="str">
         <f>WeekStart</f>
         <v>Sunday</v>
       </c>
-      <c r="C3" s="34" t="str">
+      <c r="C3" s="30" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="D3" s="34" t="str">
+      <c r="D3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E3" s="34" t="str">
+      <c r="E3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="F3" s="34" t="str">
+      <c r="F3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="G3" s="34" t="str">
+      <c r="G3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="H3" s="35" t="str">
+      <c r="H3" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="36">
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32">
         <f t="array" ref="B4:H4">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(WeekStart="Monday")+1)+1</f>
         <v>44710</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="32">
         <v>44711</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="32">
         <v>44712</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <v>44713</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="32">
         <v>44714</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="32">
         <v>44715</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="32">
         <v>44716</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="39">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="35">
         <f t="array" ref="B6:H6">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(WeekStart="Monday")+1)+8</f>
         <v>44717</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="35">
         <v>44718</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="35">
         <v>44719</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <v>44720</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="35">
         <v>44721</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="35">
         <v>44722</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="35">
         <v>44723</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="40">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="36">
         <f t="array" ref="B8:H8">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(WeekStart="Monday")+1)+15</f>
         <v>44724</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="36">
         <v>44725</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="36">
         <v>44726</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="36">
         <v>44727</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="36">
         <v>44728</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="36">
         <v>44729</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="36">
         <v>44730</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="39">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="35">
         <f t="array" ref="B10:H10">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(WeekStart="Monday")+1)+22</f>
         <v>44731</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="35">
         <v>44732</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="35">
         <v>44733</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="35">
         <v>44734</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="35">
         <v>44735</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="35">
         <v>44736</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="35">
         <v>44737</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="40">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="36">
         <f t="array" ref="B12:H12">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(WeekStart="Monday")+1)+29</f>
         <v>44738</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="36">
         <v>44739</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="36">
         <v>44740</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="36">
         <v>44741</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="36">
         <v>44742</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="36">
         <v>44743</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="36">
         <v>44744</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="39">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="35">
         <f t="array" ref="B14:C14">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(WeekStart="Monday")+1)+36</f>
         <v>44745</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="35">
         <v>44746</v>
       </c>
       <c r="D14" s="58" t="s">
@@ -4062,10 +3971,9 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
       <c r="F15" s="60"/>
@@ -4111,7 +4019,7 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:H1048576"/>
@@ -4121,241 +4029,229 @@
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
     <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="57" t="str">
         <f>"July "&amp;CalendarYear</f>
         <v>July 2022</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="33" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="str">
         <f>WeekStart</f>
         <v>Sunday</v>
       </c>
-      <c r="C3" s="34" t="str">
+      <c r="C3" s="30" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="D3" s="34" t="str">
+      <c r="D3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E3" s="34" t="str">
+      <c r="E3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="F3" s="34" t="str">
+      <c r="F3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="G3" s="34" t="str">
+      <c r="G3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="H3" s="35" t="str">
+      <c r="H3" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="36">
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32">
         <f t="array" ref="B4:H4">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(WeekStart="Monday")+1)+1</f>
         <v>44738</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="32">
         <v>44739</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="32">
         <v>44740</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <v>44741</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="32">
         <v>44742</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="32">
         <v>44743</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="32">
         <v>44744</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="39">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="35">
         <f t="array" ref="B6:H6">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(WeekStart="Monday")+1)+8</f>
         <v>44745</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="35">
         <v>44746</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="35">
         <v>44747</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <v>44748</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="35">
         <v>44749</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="35">
         <v>44750</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="35">
         <v>44751</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="40">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="36">
         <f t="array" ref="B8:H8">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(WeekStart="Monday")+1)+15</f>
         <v>44752</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="36">
         <v>44753</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="36">
         <v>44754</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="36">
         <v>44755</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="36">
         <v>44756</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="36">
         <v>44757</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="36">
         <v>44758</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="39">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="35">
         <f t="array" ref="B10:H10">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(WeekStart="Monday")+1)+22</f>
         <v>44759</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="35">
         <v>44760</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="35">
         <v>44761</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="35">
         <v>44762</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="35">
         <v>44763</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="35">
         <v>44764</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="35">
         <v>44765</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="40">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="36">
         <f t="array" ref="B12:H12">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(WeekStart="Monday")+1)+29</f>
         <v>44766</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="36">
         <v>44767</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="36">
         <v>44768</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="36">
         <v>44769</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="36">
         <v>44770</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="36">
         <v>44771</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="36">
         <v>44772</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="39">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="35">
         <f t="array" ref="B14:C14">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(WeekStart="Monday")+1)+36</f>
         <v>44773</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="35">
         <v>44774</v>
       </c>
       <c r="D14" s="58" t="s">
@@ -4366,10 +4262,9 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
       <c r="F15" s="60"/>
@@ -4415,251 +4310,239 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
     <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="57" t="str">
         <f>"August "&amp;CalendarYear</f>
         <v>August 2022</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="33" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="str">
         <f>WeekStart</f>
         <v>Sunday</v>
       </c>
-      <c r="C3" s="34" t="str">
+      <c r="C3" s="30" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="D3" s="34" t="str">
+      <c r="D3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E3" s="34" t="str">
+      <c r="E3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="F3" s="34" t="str">
+      <c r="F3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="G3" s="34" t="str">
+      <c r="G3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="H3" s="35" t="str">
+      <c r="H3" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="36">
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32">
         <f t="array" ref="B4:H4">DaysAndWeeks+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(WeekStart="Monday")+1)+1</f>
         <v>44773</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="32">
         <v>44774</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="32">
         <v>44775</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <v>44776</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="32">
         <v>44777</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="32">
         <v>44778</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="32">
         <v>44779</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="39">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="35">
         <f t="array" ref="B6:H6">DaysAndWeeks+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(WeekStart="Monday")+1)+8</f>
         <v>44780</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="35">
         <v>44781</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="35">
         <v>44782</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <v>44783</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="35">
         <v>44784</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="35">
         <v>44785</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="35">
         <v>44786</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="40">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="36">
         <f t="array" ref="B8:H8">DaysAndWeeks+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(WeekStart="Monday")+1)+15</f>
         <v>44787</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="36">
         <v>44788</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="36">
         <v>44789</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="36">
         <v>44790</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="36">
         <v>44791</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="36">
         <v>44792</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="36">
         <v>44793</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="39">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="35">
         <f t="array" ref="B10:H10">DaysAndWeeks+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(WeekStart="Monday")+1)+22</f>
         <v>44794</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="35">
         <v>44795</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="35">
         <v>44796</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="35">
         <v>44797</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="35">
         <v>44798</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="35">
         <v>44799</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="35">
         <v>44800</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="40">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="36">
         <f t="array" ref="B12:H12">DaysAndWeeks+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(WeekStart="Monday")+1)+29</f>
         <v>44801</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="36">
         <v>44802</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="36">
         <v>44803</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="36">
         <v>44804</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="36">
         <v>44805</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="36">
         <v>44806</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="36">
         <v>44807</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="39">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="35">
         <f t="array" ref="B14:C14">DaysAndWeeks+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(WeekStart="Monday")+1)+36</f>
         <v>44808</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="35">
         <v>44809</v>
       </c>
       <c r="D14" s="58" t="s">
@@ -4670,10 +4553,9 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
       <c r="F15" s="60"/>
@@ -4719,253 +4601,259 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
     <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="2"/>
+    <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="62" t="str">
         <f>"September "&amp;CalendarYear</f>
         <v>September 2022</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="22" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="str">
         <f>WeekStart</f>
         <v>Sunday</v>
       </c>
-      <c r="C3" s="23" t="str">
+      <c r="C3" s="19" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="D3" s="23" t="str">
+      <c r="D3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="E3" s="23" t="str">
+      <c r="E3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="F3" s="23" t="str">
+      <c r="F3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="G3" s="23" t="str">
+      <c r="G3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="H3" s="24" t="str">
+      <c r="H3" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="41">
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37">
         <f t="array" ref="B4:H4">DaysAndWeeks+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(WeekStart="Monday")+1)+1</f>
         <v>44801</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="37">
         <v>44802</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="37">
         <v>44803</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="37">
         <v>44804</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="37">
         <v>44805</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="37">
         <v>44806</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="37">
         <v>44807</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43" t="s">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="44">
+      <c r="G5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="40">
         <f t="array" ref="B6:H6">DaysAndWeeks+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(WeekStart="Monday")+1)+8</f>
         <v>44808</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="40">
         <v>44809</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="40">
         <v>44810</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="40">
         <v>44811</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="40">
         <v>44812</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="40">
         <v>44813</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="40">
         <v>44814</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="45">
+    <row r="7" spans="2:9" s="43" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41">
         <f t="array" ref="B8:H8">DaysAndWeeks+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(WeekStart="Monday")+1)+15</f>
         <v>44815</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="41">
         <v>44816</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="41">
         <v>44817</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="41">
         <v>44818</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="41">
         <v>44819</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="41">
         <v>44820</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="41">
         <v>44821</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="44">
+    <row r="9" spans="2:9" s="43" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="40">
         <f t="array" ref="B10:H10">DaysAndWeeks+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(WeekStart="Monday")+1)+22</f>
         <v>44822</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="40">
         <v>44823</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="40">
         <v>44824</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="40">
         <v>44825</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="40">
         <v>44826</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="40">
         <v>44827</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="40">
         <v>44828</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="45">
+    <row r="11" spans="2:9" s="43" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41">
         <f t="array" ref="B12:H12">DaysAndWeeks+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(WeekStart="Monday")+1)+29</f>
         <v>44829</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="41">
         <v>44830</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="41">
         <v>44831</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="41">
         <v>44832</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="41">
         <v>44833</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="41">
         <v>44834</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="41">
         <v>44835</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="44">
+    <row r="13" spans="2:9" s="43" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="40">
         <f t="array" ref="B14:C14">DaysAndWeeks+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(WeekStart="Monday")+1)+36</f>
         <v>44836</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="40">
         <v>44837</v>
       </c>
       <c r="D14" s="63" t="s">
@@ -4976,10 +4864,9 @@
       <c r="G14" s="63"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+    <row r="15" spans="2:9" s="43" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="65"/>
       <c r="E15" s="65"/>
       <c r="F15" s="65"/>

--- a/Calendar Schedule.xlsx
+++ b/Calendar Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14B3874-F5E8-441D-80A5-0364CE239E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385CAA5E-8AC6-4C08-BFE5-DB2DC52CE1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
   <si>
     <t>Sunday</t>
   </si>
@@ -114,6 +114,12 @@
 2. Get Player Status to Lock
 3. Switch Player &amp; Updata Player
 4. Test Add Round &amp; Find Bug</t>
+  </si>
+  <si>
+    <t>1. Check Bug UI &amp; Feature
+2. Find Data Message Model
+3. Edit Text Toolbar in Edit Round
+4. Add Round ID in ChatActivity</t>
   </si>
 </sst>
 </file>
@@ -731,7 +737,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -859,15 +865,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
@@ -927,17 +924,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1391,12 +1400,12 @@
       </c>
     </row>
     <row r="2" spans="2:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="43" t="str">
         <f>"January "&amp;CalendarYear</f>
         <v>January 2022</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1431,10 +1440,10 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="51"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
@@ -1621,22 +1630,22 @@
       <c r="C14" s="6">
         <v>44592</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="2:12" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1712,12 +1721,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="str">
+      <c r="B2" s="59" t="str">
         <f>"October "&amp;CalendarYear</f>
         <v>October 2022</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1926,22 +1935,22 @@
       <c r="C14" s="40">
         <v>44865</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2003,12 +2012,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="str">
+      <c r="B2" s="59" t="str">
         <f>"November "&amp;CalendarYear</f>
         <v>November 2022</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2217,22 +2226,22 @@
       <c r="C14" s="40">
         <v>44900</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2294,12 +2303,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="43" t="str">
         <f>"December "&amp;CalendarYear</f>
         <v>December 2022</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2508,22 +2517,22 @@
       <c r="C14" s="6">
         <v>44928</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2585,12 +2594,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="43" t="str">
         <f>"February "&amp;CalendarYear</f>
         <v>February 2022</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2799,22 +2808,22 @@
       <c r="C14" s="6">
         <v>44627</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2876,12 +2885,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="str">
+      <c r="B2" s="49" t="str">
         <f>"March "&amp;CalendarYear</f>
         <v>March 2022</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3090,22 +3099,22 @@
       <c r="C14" s="27">
         <v>44655</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3167,12 +3176,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="str">
+      <c r="B2" s="49" t="str">
         <f>"April "&amp;CalendarYear</f>
         <v>April 2022</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3381,22 +3390,22 @@
       <c r="C14" s="27">
         <v>44683</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3458,12 +3467,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="str">
+      <c r="B2" s="49" t="str">
         <f>"May "&amp;CalendarYear</f>
         <v>May 2022</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3672,22 +3681,22 @@
       <c r="C14" s="27">
         <v>44718</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3749,12 +3758,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="str">
+      <c r="B2" s="54" t="str">
         <f>"June "&amp;CalendarYear</f>
         <v>June 2022</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3963,22 +3972,22 @@
       <c r="C14" s="35">
         <v>44746</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4040,12 +4049,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="str">
+      <c r="B2" s="54" t="str">
         <f>"July "&amp;CalendarYear</f>
         <v>July 2022</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4254,22 +4263,22 @@
       <c r="C14" s="35">
         <v>44774</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4331,12 +4340,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="str">
+      <c r="B2" s="54" t="str">
         <f>"August "&amp;CalendarYear</f>
         <v>August 2022</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4545,22 +4554,22 @@
       <c r="C14" s="35">
         <v>44809</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4610,7 +4619,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
+    <col min="2" max="8" width="26.19921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="1"/>
@@ -4622,12 +4631,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="str">
+      <c r="B2" s="59" t="str">
         <f>"September "&amp;CalendarYear</f>
         <v>September 2022</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4687,18 +4696,18 @@
         <v>44807</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42" t="s">
+    <row r="5" spans="2:9" s="65" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="42" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4726,16 +4735,18 @@
         <v>44814</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="43" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+    <row r="7" spans="2:9" s="67" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45" t="s">
+      <c r="C7" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="42" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4763,16 +4774,16 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="43" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+    <row r="9" spans="2:9" s="67" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="45" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="42" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4800,16 +4811,16 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="43" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
+    <row r="11" spans="2:9" s="67" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45" t="s">
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="42" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4837,16 +4848,16 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="43" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+    <row r="13" spans="2:9" s="67" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40">
@@ -4856,22 +4867,22 @@
       <c r="C14" s="40">
         <v>44837</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
-    </row>
-    <row r="15" spans="2:9" s="43" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+    </row>
+    <row r="15" spans="2:9" s="67" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4900,8 +4911,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains weekday names for this calendar. This cell contains the starting day of the week. To change week start day, select a new weekday in January worksheet cell L5." sqref="B3" xr:uid="{00000000-0002-0000-0800-000007000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
 </worksheet>
 </file>

--- a/Calendar Schedule.xlsx
+++ b/Calendar Schedule.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385CAA5E-8AC6-4C08-BFE5-DB2DC52CE1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4148E86-453E-4B54-AB64-850346F5CED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>Sunday</t>
   </si>
@@ -120,6 +120,57 @@
 2. Find Data Message Model
 3. Edit Text Toolbar in Edit Round
 4. Add Round ID in ChatActivity</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>1. Fix Bug Intent Form Notification
+2. Send Round ID on Realtime
+3. Test Notification
+4. Fix Bug UI &amp; Programing</t>
+  </si>
+  <si>
+    <t>1. Fetch Round Data In Adapter
+2. Get CountUnread All Chat
+3. Create badge in bottomView
+4. Display count in badge
+5. Check login type for EditRound</t>
+  </si>
+  <si>
+    <t>1. Update Round in EditRound
+2. Swittch Player (Add &amp; Remove)
+3. Test Update All Round Data
+4. Display Friend Request Count in badge
+5. Compare Two ArrayList String</t>
+  </si>
+  <si>
+    <t>1. Move Option Menu From Profile to Friend 
+2. Edit Bug Update Player to Recent Chat
+3. Test Create Round Without Friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fix Bug Not Send CaddieID
+2. Test Insert ScoreCard
+3. Test Update Map Data in Firestore
+</t>
+  </si>
+  <si>
+    <t>1. Test Update Map Data in Firestore
+2. Create UI In RoundActivity
+3. Test Unicode Block</t>
+  </si>
+  <si>
+    <t>1. Create Number Picker
+2. Check Bug Array Data
+3. Add Issue For RoundActivity
+4. Test Fetch ScoreCard Data</t>
+  </si>
+  <si>
+    <t>1. Change Value Number Picker
+2. Insert &amp; Remove Element in Array
+3. Check Round Status in EditRound
+4. Add Summary Row</t>
   </si>
 </sst>
 </file>
@@ -867,6 +918,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -924,29 +987,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1400,12 +1451,12 @@
       </c>
     </row>
     <row r="2" spans="2:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="47" t="str">
         <f>"January "&amp;CalendarYear</f>
         <v>January 2022</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1440,10 +1491,10 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="48"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
@@ -1630,22 +1681,22 @@
       <c r="C14" s="6">
         <v>44592</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="2:12" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1702,14 +1753,14 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
+    <col min="2" max="8" width="26.19921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="1"/>
@@ -1721,12 +1772,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="str">
+      <c r="B2" s="63" t="str">
         <f>"October "&amp;CalendarYear</f>
         <v>October 2022</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1935,22 +1986,22 @@
       <c r="C14" s="40">
         <v>44865</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1994,13 +2045,13 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A15" activeCellId="5" sqref="A5:XFD5 A7:XFD7 A9:XFD9 A11:XFD11 A13:XFD13 A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
+    <col min="2" max="8" width="26.19921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="1"/>
@@ -2012,12 +2063,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="str">
+      <c r="B2" s="63" t="str">
         <f>"November "&amp;CalendarYear</f>
         <v>November 2022</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2077,7 +2128,7 @@
         <v>44870</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -2110,7 +2161,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -2143,7 +2194,7 @@
         <v>44884</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
@@ -2176,7 +2227,7 @@
         <v>44891</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -2209,7 +2260,7 @@
         <v>44898</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -2226,22 +2277,22 @@
       <c r="C14" s="40">
         <v>44900</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-    </row>
-    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2285,13 +2336,13 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A15" activeCellId="5" sqref="A5:XFD5 A7:XFD7 A9:XFD9 A11:XFD11 A13:XFD13 A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="25.69921875" style="1" customWidth="1"/>
+    <col min="2" max="8" width="26.19921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.59765625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.69921875" style="1"/>
@@ -2303,12 +2354,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="47" t="str">
         <f>"December "&amp;CalendarYear</f>
         <v>December 2022</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2368,7 +2419,7 @@
         <v>44898</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2401,7 +2452,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2434,7 +2485,7 @@
         <v>44912</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2467,7 +2518,7 @@
         <v>44919</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2500,7 +2551,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2517,22 +2568,22 @@
       <c r="C14" s="6">
         <v>44928</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-    </row>
-    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
+    </row>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2594,12 +2645,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="47" t="str">
         <f>"February "&amp;CalendarYear</f>
         <v>February 2022</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2808,22 +2859,22 @@
       <c r="C14" s="6">
         <v>44627</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2885,12 +2936,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="53" t="str">
         <f>"March "&amp;CalendarYear</f>
         <v>March 2022</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3099,22 +3150,22 @@
       <c r="C14" s="27">
         <v>44655</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3176,12 +3227,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="53" t="str">
         <f>"April "&amp;CalendarYear</f>
         <v>April 2022</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3390,22 +3441,22 @@
       <c r="C14" s="27">
         <v>44683</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3467,12 +3518,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="53" t="str">
         <f>"May "&amp;CalendarYear</f>
         <v>May 2022</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3681,22 +3732,22 @@
       <c r="C14" s="27">
         <v>44718</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3758,12 +3809,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="58" t="str">
         <f>"June "&amp;CalendarYear</f>
         <v>June 2022</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3972,22 +4023,22 @@
       <c r="C14" s="35">
         <v>44746</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4049,12 +4100,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="58" t="str">
         <f>"July "&amp;CalendarYear</f>
         <v>July 2022</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4263,22 +4314,22 @@
       <c r="C14" s="35">
         <v>44774</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4322,7 +4373,7 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4340,12 +4391,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="58" t="str">
         <f>"August "&amp;CalendarYear</f>
         <v>August 2022</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4405,7 +4456,7 @@
         <v>44779</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -4438,7 +4489,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -4471,7 +4522,7 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -4504,7 +4555,7 @@
         <v>44800</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -4537,7 +4588,7 @@
         <v>44807</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -4554,22 +4605,22 @@
       <c r="C14" s="35">
         <v>44809</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="2:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+    </row>
+    <row r="15" spans="2:9" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4612,8 +4663,8 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4631,12 +4682,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="str">
+      <c r="B2" s="63" t="str">
         <f>"September "&amp;CalendarYear</f>
         <v>September 2022</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4696,15 +4747,15 @@
         <v>44807</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="65" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64" t="s">
+    <row r="5" spans="2:9" s="44" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="43" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="42" t="s">
@@ -4735,17 +4786,25 @@
         <v>44814</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="67" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="46" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="D7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>10</v>
+      </c>
       <c r="H7" s="42" t="s">
         <v>7</v>
       </c>
@@ -4774,15 +4833,25 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="67" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" s="46" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="C9" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="42" t="s">
         <v>7</v>
       </c>
@@ -4811,15 +4880,15 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="67" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="46" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="42" t="s">
         <v>7</v>
       </c>
@@ -4848,16 +4917,16 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="67" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="46" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40">
@@ -4867,22 +4936,22 @@
       <c r="C14" s="40">
         <v>44837</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-    </row>
-    <row r="15" spans="2:9" s="67" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="2:9" s="46" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
